--- a/db/ExchangeFee-20250406.xlsx
+++ b/db/ExchangeFee-20250406.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panjc/Documents/Project/kingstar2femasfee/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB4F9F1-9481-EA48-8600-733ACCC051AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AF5BAB-5F11-CA4A-8684-1D7033EA60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{BBFFCE69-CC1A-3E4A-9F2B-54B9FB96217C}"/>
+    <workbookView xWindow="43200" yWindow="1200" windowWidth="28040" windowHeight="17360" xr2:uid="{BBFFCE69-CC1A-3E4A-9F2B-54B9FB96217C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>交易所</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,110 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑商所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,15 +575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348CE9E0-4D2F-8544-8327-C9732A382271}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -542,6 +646,706 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/ExchangeFee-20250406.xlsx
+++ b/db/ExchangeFee-20250406.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panjc/Documents/Project/kingstar2femasfee/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AF5BAB-5F11-CA4A-8684-1D7033EA60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87FDC2B-206E-C94E-8A74-D9C55BDA4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43200" yWindow="1200" windowWidth="28040" windowHeight="17360" xr2:uid="{BBFFCE69-CC1A-3E4A-9F2B-54B9FB96217C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -578,7 +581,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1347,6 +1350,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F38" xr:uid="{348CE9E0-4D2F-8544-8327-C9732A382271}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
